--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D92F9-74B6-4CD7-9C22-03FD3CFA047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9C7D8-20A2-4C7E-9F2D-A939502D5511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0C931DD8-D6E6-4205-86E3-BF3194B81A3B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{0C931DD8-D6E6-4205-86E3-BF3194B81A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Service Now</t>
   </si>
@@ -143,6 +143,18 @@
   <si>
     <t>EPS</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -153,13 +165,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,20 +227,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9020956-9724-4ED9-8201-B18B8550C0A7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -570,80 +591,80 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
-        <v>1045.1199999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <v>947.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
-        <v>206</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="5">
+        <v>208</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
-        <f>G4*G3</f>
-        <v>215294.71999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="2" t="s">
+      <c r="H5" s="5">
+        <f>H4*H3</f>
+        <v>197129.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5">
-        <f>2159+3254</f>
-        <v>5413</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="2" t="s">
+      <c r="H6" s="5">
+        <f>3124+3008</f>
+        <v>6132</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
-        <v>1488</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
+      <c r="H7" s="5">
+        <v>1490</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5">
-        <f>G5-G6+G7</f>
-        <v>211369.71999999997</v>
+      <c r="H8" s="5">
+        <f>H5-H6+H7</f>
+        <v>192487.92</v>
       </c>
     </row>
   </sheetData>
@@ -658,11 +679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDD1AAD-A824-4F1E-A850-60AAB4A85BE2}">
   <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -702,6 +723,18 @@
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -720,7 +753,9 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>3113</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -758,7 +793,9 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>102</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -795,12 +832,30 @@
         <f>+H3+H4</f>
         <v>2627</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:K5" si="0">+I3+I4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f>+L3+L4</f>
+        <v>3215</v>
+      </c>
+      <c r="M5" s="7">
+        <f>+M3+M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f>+N3+N4</f>
+        <v>0</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -836,7 +891,9 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>625</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -874,7 +931,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>99</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -911,12 +970,30 @@
         <f>H5-SUM(H6:H7)</f>
         <v>2075</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:N8" si="1">I5-SUM(I6:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>2491</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -952,7 +1029,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>1128</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -990,7 +1069,9 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>734</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1028,7 +1109,9 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>271</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1065,12 +1148,30 @@
         <f>H8-SUM(H9:H11)</f>
         <v>240</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="I12" s="5">
+        <f t="shared" ref="I12:N12" si="2">I8-SUM(I9:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1106,7 +1207,9 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>116</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1144,7 +1247,9 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>-3</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1181,12 +1286,30 @@
         <f>H12+SUM(H13:H14)</f>
         <v>334</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15:N15" si="3">I12+SUM(I13:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>471</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1222,7 +1345,9 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>86</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1259,12 +1384,30 @@
         <f>H15-H16</f>
         <v>262</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17:N17" si="4">I15-I16</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1330,12 +1473,30 @@
         <f>H17/H20</f>
         <v>1.2740464103012974</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="I19" s="8" t="e">
+        <f t="shared" ref="I19:N19" si="5">I17/I20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="5"/>
+        <v>1.8584310015253616</v>
+      </c>
+      <c r="M19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1371,7 +1532,9 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>207.16399999999999</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
